--- a/Table/Table_xls/k开奖配置文件/k开奖奖励表.xlsx
+++ b/Table/Table_xls/k开奖配置文件/k开奖奖励表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -979,9 +979,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1049,23 +1049,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,7 +1080,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,6 +1088,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,15 +1109,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,13 +1146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1177,6 +1162,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1187,7 +1179,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,19 +1249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,19 +1267,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,31 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1321,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,43 +1387,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,37 +1417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,13 +1443,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,17 +1467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,17 +1494,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1526,17 +1530,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1545,148 +1545,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2207,15 +2207,15 @@
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="9.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.1296296296296" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.6296296296296" style="13" customWidth="1"/>
     <col min="5" max="5" width="30" style="15" customWidth="1"/>
-    <col min="6" max="6" width="50.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="50.1296296296296" style="16" customWidth="1"/>
+    <col min="7" max="7" width="7.87962962962963" style="16" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="17.375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.3796296296296" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.8796296296296" style="13" customWidth="1"/>
+    <col min="11" max="11" width="17.3796296296296" style="13" customWidth="1"/>
     <col min="12" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -3254,7 +3254,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="3" customWidth="1"/>
@@ -52817,7 +52817,7 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="2:82">
       <c r="B1" s="1" t="s">
